--- a/zephyr_uploader/demo_zephyr.xlsx
+++ b/zephyr_uploader/demo_zephyr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t xml:space="preserve">JiraIdsColumn</t>
   </si>
@@ -197,367 +197,40 @@
     <t xml:space="preserve">Comments column is 6</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">username</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">auto-robot
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mySecretPasswd123!
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">jiraUrl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://jira.yourcompany.com/rest/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">projectKey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">AIP
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ReleaseVersion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.2-UP2020
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">testCycle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Regression
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">reportPath</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=demo_zephyr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.xlsx
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">noOfThreads</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">recreateFolder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">true
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">folderName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Results
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">executionStatusColumn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=4
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">commentsColumn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6</t>
-    </r>
+    <t xml:space="preserve">username=auto-robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password=mySecretPasswd123!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jiraUrl=http://jira.yourcompany.com/rest/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">projectKey=AIP                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">releaseVersion=1.2-UP2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testCycle=Regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reportPath=demo_zephyr.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noOfThreads=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recreateFolder=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">folderName=Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">executionStatusColumn=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commentsColumn=6</t>
   </si>
 </sst>
 </file>
@@ -567,7 +240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -612,20 +285,6 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -641,103 +300,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -769,7 +337,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -794,59 +362,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -877,7 +405,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF6A8759"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -938,7 +466,7 @@
   </sheetPr>
   <dimension ref="A1:L1008"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1434,10 +962,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1449,49 +977,102 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="123.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>57</v>
-      </c>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:D5"/>
